--- a/src/test/resources/config/Excel data/DsAlgo_Loginpage.xlsx
+++ b/src/test/resources/config/Excel data/DsAlgo_Loginpage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karth\eclipse-workspace\cucumber_pro\src\test\resources\config\Excel data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karth\eclipse-workspace\DSAlgo\src\test\resources\config\Excel data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E07AE2A-A4B4-48E0-9CE7-F4665036BBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A3F837-2693-4907-8475-9B2C377A9D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{306FE1D8-269C-4AEE-A737-4149CBF78020}"/>
+    <workbookView xWindow="4704" yWindow="3468" windowWidth="17280" windowHeight="9960" activeTab="3" xr2:uid="{306FE1D8-269C-4AEE-A737-4149CBF78020}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
   <si>
     <t>username</t>
   </si>
@@ -90,12 +90,6 @@
     <t>print("Hello DataStructure")</t>
   </si>
   <si>
-    <t>print("Hello LinkedList")</t>
-  </si>
-  <si>
-    <t>print(hello world)</t>
-  </si>
-  <si>
     <t>print("Hello Linkedlist")</t>
   </si>
   <si>
@@ -109,6 +103,60 @@
   </si>
   <si>
     <t>linkedlist</t>
+  </si>
+  <si>
+    <t>print("Hello TypesofLinkedList")</t>
+  </si>
+  <si>
+    <t>Helloworld</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>print("Hello ImplementLinkedList")</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>ninja</t>
+  </si>
+  <si>
+    <t>print("Hello World")</t>
+  </si>
+  <si>
+    <t>traversal</t>
+  </si>
+  <si>
+    <t>insert</t>
+  </si>
+  <si>
+    <t>insertData</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>ninja1</t>
+  </si>
+  <si>
+    <t>deleteData</t>
+  </si>
+  <si>
+    <t>stack</t>
+  </si>
+  <si>
+    <t>stack1</t>
+  </si>
+  <si>
+    <t>print("Hello Implementation")</t>
+  </si>
+  <si>
+    <t>implement</t>
+  </si>
+  <si>
+    <t>stackdata</t>
   </si>
 </sst>
 </file>
@@ -568,15 +616,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E16624C-B240-4807-AC3F-2C00964F04BB}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="1" max="1" width="31.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -596,7 +644,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -611,7 +659,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
@@ -621,7 +669,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
@@ -631,12 +679,137 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -646,15 +819,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2BAFC0-65B7-4A16-8945-CD719BDAE007}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -664,7 +837,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -674,12 +847,62 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/config/Excel data/DsAlgo_Loginpage.xlsx
+++ b/src/test/resources/config/Excel data/DsAlgo_Loginpage.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karth\eclipse-workspace\DSAlgo\src\test\resources\config\Excel data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A3F837-2693-4907-8475-9B2C377A9D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615DDC20-57C9-4515-B038-5116D8B6E090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4704" yWindow="3468" windowWidth="17280" windowHeight="9960" activeTab="3" xr2:uid="{306FE1D8-269C-4AEE-A737-4149CBF78020}"/>
+    <workbookView xWindow="4704" yWindow="3468" windowWidth="17280" windowHeight="9960" activeTab="4" xr2:uid="{306FE1D8-269C-4AEE-A737-4149CBF78020}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
   <si>
     <t>username</t>
   </si>
@@ -157,6 +158,33 @@
   </si>
   <si>
     <t>stackdata</t>
+  </si>
+  <si>
+    <t>treecode</t>
+  </si>
+  <si>
+    <t>print("Hello Tree")</t>
+  </si>
+  <si>
+    <t>hitree</t>
+  </si>
+  <si>
+    <t>print("Hello world")</t>
+  </si>
+  <si>
+    <t>traversaltree</t>
+  </si>
+  <si>
+    <t>illustration</t>
+  </si>
+  <si>
+    <t>print("Binary Tree")</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
 </sst>
 </file>
@@ -821,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2BAFC0-65B7-4A16-8945-CD719BDAE007}">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -908,4 +936,172 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CEBF6C-CA6A-4174-95B2-B19E3C2962DD}">
+  <dimension ref="A1:A30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>